--- a/figures/main/t1_bgc_table.xlsx
+++ b/figures/main/t1_bgc_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chevr\Documents\paper_workspace\thor_secmet\fig\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C872AF1-4B59-4BB2-929A-6C650C496E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4DECDC-A512-45C4-9D33-C291F915D84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="9960" xr2:uid="{D9435FA0-F89B-4DED-BDCC-4F3AB3F8817C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18732" windowHeight="9252" xr2:uid="{D9435FA0-F89B-4DED-BDCC-4F3AB3F8817C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>antiSMASH regions</t>
   </si>
   <si>
-    <t>Protein coding genes</t>
-  </si>
-  <si>
     <t>SMCOG annotated genes (%)</t>
   </si>
   <si>
@@ -162,23 +159,6 @@
 (known functions) [reference]</t>
   </si>
   <si>
-    <t>N-acetylglutaminylglutamine amide (osmotic stress) [49]
-Lokisin (antibiotic/antifungal) [47, 48]
-Koreenceine (antibiotic) [30]</t>
-  </si>
-  <si>
-    <t>Flexirubin (antioxidant) [45]</t>
-  </si>
-  <si>
-    <t>Zwittermicin (antibiotic) [31, 38]
-Kanosamine (antibiotic) [31]
-Petrobactin (siderophore) [39]
-Bacillibactin (siderophore) [37, 39]
-Pulcherriminic acid (siderophore) [40]
-Bacillithiol (redox balance/resistance) [35, 36]
-Kurstakin (antibiotic/antifungal) [41]</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <i/>
@@ -240,6 +220,26 @@
       </rPr>
       <t>, F</t>
     </r>
+  </si>
+  <si>
+    <t>Protein encoding genes</t>
+  </si>
+  <si>
+    <t>Zwittermicin (antibiotic) [33, 42]
+Kanosamine (antibiotic) [33]
+Petrobactin (siderophore) [34]
+Bacillibactin (siderophore) [34, 41]
+Pulcherriminic acid (siderophore) [43]
+Bacillithiol (redox balance/resistance) [39, 40]
+Kurstakin (antibiotic/antifungal) [44]</t>
+  </si>
+  <si>
+    <t>Flexirubin (antioxidant) [35]</t>
+  </si>
+  <si>
+    <t>N-acetylglutaminylglutamine amide (osmotic stress) [50]
+Lokisin (antibiotic/antifungal) [36, 49]
+Koreenceine (antibiotic) [37]</t>
   </si>
 </sst>
 </file>
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070F834C-01D4-4307-B43E-3E75ED8470F0}">
   <dimension ref="C3:J15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -877,100 +877,100 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="3:10" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="7">
         <v>6180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
         <v>44</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="3:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="10">
         <v>5199</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="10">
         <v>28</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="3:10" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="13">
         <v>5865</v>
       </c>
       <c r="G7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>11</v>
       </c>
       <c r="I7" s="13">
         <v>28</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.3">

--- a/figures/main/t1_bgc_table.xlsx
+++ b/figures/main/t1_bgc_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chevr\Documents\paper_workspace\thor_secmet\fig\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4DECDC-A512-45C4-9D33-C291F915D84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F39E4F-DF4B-4266-B5FE-E5599CE4213F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18732" windowHeight="9252" xr2:uid="{D9435FA0-F89B-4DED-BDCC-4F3AB3F8817C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D9435FA0-F89B-4DED-BDCC-4F3AB3F8817C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,9 +222,6 @@
     </r>
   </si>
   <si>
-    <t>Protein encoding genes</t>
-  </si>
-  <si>
     <t>Zwittermicin (antibiotic) [33, 42]
 Kanosamine (antibiotic) [33]
 Petrobactin (siderophore) [34]
@@ -240,6 +237,9 @@
     <t>N-acetylglutaminylglutamine amide (osmotic stress) [50]
 Lokisin (antibiotic/antifungal) [36, 49]
 Koreenceine (antibiotic) [37]</t>
+  </si>
+  <si>
+    <t>Protein-encoding genes</t>
   </si>
 </sst>
 </file>
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070F834C-01D4-4307-B43E-3E75ED8470F0}">
   <dimension ref="C3:J15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -880,7 +880,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>16</v>
@@ -918,7 +918,7 @@
         <v>44</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="3:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -944,7 +944,7 @@
         <v>28</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="3:10" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -970,7 +970,7 @@
         <v>28</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.3">
